--- a/Java Web App.xlsx
+++ b/Java Web App.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="15600" windowHeight="7995" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="Java Batch 1" sheetId="1" r:id="rId1"/>
     <sheet name="Java Batch 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Sno.</t>
   </si>
@@ -200,6 +200,33 @@
   </si>
   <si>
     <t>Due to the popularity of social networking site, to capture web market, posting advertising of the product &amp; making our product popular it’s very important to have our web supports social integration. Social integration helps for the Search Engine Optimization (SEO), Having social integration with the web it’s easy to get the popularity of the product.  Social Networking has become an integral part of our daily lives. Friends and family are really important to us and keeping in touch with them &amp; knowledge sharing. Social networking is becoming a  way of communication.</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>Archana</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Subedha</t>
+  </si>
+  <si>
+    <t>Sangeetha</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Load Management for transport planningh</t>
+  </si>
+  <si>
+    <t>Sivanesh</t>
   </si>
 </sst>
 </file>
@@ -795,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D10"/>
+  <dimension ref="A3:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,7 +861,9 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="180">
       <c r="A5" s="2">
@@ -846,7 +875,9 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="135">
       <c r="A6" s="2">
@@ -858,7 +889,9 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="135">
       <c r="A7" s="2">
@@ -870,7 +903,9 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45">
       <c r="A8" s="2">
@@ -882,7 +917,9 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="75">
       <c r="A9" s="2">
@@ -894,7 +931,9 @@
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="90">
       <c r="A10" s="2">
@@ -906,7 +945,20 @@
       <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
